--- a/doc/data packet structure.xlsx
+++ b/doc/data packet structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkiselev\Documents\dev\sync_device_32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94206EEE-8FC3-4428-A9BA-290EFFD40613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CBBAC-4B55-4CD8-89EC-10708976FAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
   </bookViews>
   <sheets>
     <sheet name="Data packet format" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
   <si>
     <t>Description</t>
   </si>
@@ -497,10 +497,6 @@
     <t>Get property</t>
   </si>
   <si>
-    <t>Set property
-NOT IMPLEMENTED</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">uint32
 </t>
@@ -861,32 +857,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">See </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SysProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enum for a list of supported properties</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Content of event queue as a </t>
     </r>
     <r>
@@ -1055,6 +1025,96 @@
       </rPr>
       <t>f_arg2</t>
     </r>
+  </si>
+  <si>
+    <t>Set property</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>property_value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SysProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enum for a list of supported properties. Property names start with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ro_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rw_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (read-only or read-write).</t>
+    </r>
+  </si>
+  <si>
+    <t>v2.1.0</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1241,11 +1301,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1309,44 +1406,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,8 +1778,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,6 +1795,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1768,7 +1877,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="24"/>
@@ -1778,7 +1887,7 @@
       <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1797,13 +1906,13 @@
         <v>13</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="27"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1822,13 +1931,13 @@
         <v>13</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1847,13 +1956,13 @@
         <v>13</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1872,13 +1981,13 @@
         <v>13</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="27"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1897,13 +2006,13 @@
         <v>13</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="27"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1922,13 +2031,13 @@
         <v>13</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="27"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1947,171 +2056,173 @@
         <v>13</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="27"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="27"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="27"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="27"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="28" t="s">
-        <v>66</v>
+      <c r="K17" s="27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="28" t="s">
-        <v>67</v>
+      <c r="K19" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="28" t="s">
-        <v>81</v>
+      <c r="K20" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="29" t="s">
-        <v>89</v>
+      <c r="K21" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2124,293 +2235,293 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
+      <c r="B24" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="B25" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
+      <c r="B27" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="B28" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="B30" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
+      <c r="B33" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="B34" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
+        <v>70</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+        <v>72</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="F40" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="G40" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H40" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="J40" s="9"/>
-      <c r="K40" s="36"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="35" t="s">
         <v>49</v>
       </c>
       <c r="D41">
@@ -2434,6 +2545,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E15:I15"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="E21:I21"/>
@@ -2450,14 +2569,6 @@
     <mergeCell ref="B34:K34"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="B36:K36"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="F17:I17"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/data packet structure.xlsx
+++ b/doc/data packet structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkiselev\Documents\dev\sync_device_32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CBBAC-4B55-4CD8-89EC-10708976FAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73442C3E-6B81-4B87-9FD3-C2587E788801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
   </bookViews>
   <sheets>
     <sheet name="Data packet format" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
   <si>
     <t>Description</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>ignored</t>
-  </si>
-  <si>
-    <t>Commands that set output level (PIN, TGL, PPL, NPL, BST, etc) also configure the given pin as output</t>
   </si>
   <si>
     <t>1</t>
@@ -287,9 +284,6 @@
     </r>
   </si>
   <si>
-    <t>Timestamp of the first event occurrence, in us. The timestamp is absolute if system timer is stopped, otherwise is relative to current time. A constant delay of 500us is internally added to every timestamp</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">char[4]
 </t>
@@ -318,6 +312,24 @@
     </r>
   </si>
   <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <r>
+      <t>Burst pulse train on pin D5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">uint32
 </t>
@@ -326,47 +338,11 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>level</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>TTL level. 0 means low, anything else means high</t>
-  </si>
-  <si>
-    <t>Pulse duration in us. 0 means default duration (100 us)</t>
-  </si>
-  <si>
-    <t>BST</t>
-  </si>
-  <si>
-    <r>
-      <t>Burst pulse train on pin D5</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>period_us</t>
     </r>
   </si>
   <si>
@@ -378,11 +354,23 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>period_us</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duration_us</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
     </r>
   </si>
   <si>
@@ -401,17 +389,72 @@
       </rPr>
       <t>duration_us</t>
     </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
+  </si>
+  <si>
+    <t>GO!</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>Reset the microprocessor</t>
+  </si>
+  <si>
+    <t>Get event queue</t>
+  </si>
+  <si>
+    <t>Use micro USB port next to DC power jack as virtual COM port running at 115200 baud</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>size, bytes</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Get system status</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>Negative polarity pulse</t>
+  </si>
+  <si>
+    <t>Positive polarity pulse</t>
+  </si>
+  <si>
+    <t>Disable pin</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Clear the event queue</t>
+  </si>
+  <si>
+    <t>ENP</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>FUN</t>
+  </si>
+  <si>
+    <t>QUE</t>
+  </si>
+  <si>
+    <t>Get property</t>
   </si>
   <si>
     <r>
@@ -422,79 +465,72 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duration_us</t>
-    </r>
-  </si>
-  <si>
-    <t>GO!</t>
-  </si>
-  <si>
-    <t>STP</t>
-  </si>
-  <si>
-    <t>RST</t>
-  </si>
-  <si>
-    <t>Reset the microprocessor</t>
-  </si>
-  <si>
-    <t>Get event queue</t>
-  </si>
-  <si>
-    <t>Use micro USB port next to DC power jack as virtual COM port running at 115200 baud</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>size, bytes</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Get system status</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>Negative polarity pulse</t>
-  </si>
-  <si>
-    <t>Positive polarity pulse</t>
-  </si>
-  <si>
-    <t>Disable pin</t>
-  </si>
-  <si>
-    <t>CLR</t>
-  </si>
-  <si>
-    <t>Clear the event queue</t>
-  </si>
-  <si>
-    <t>ENP</t>
-  </si>
-  <si>
-    <t>DSP</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>FUN</t>
-  </si>
-  <si>
-    <t>QUE</t>
-  </si>
-  <si>
-    <t>Get property</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>property_id</t>
+    </r>
+  </si>
+  <si>
+    <t>Property value (ASCII text + \n)</t>
+  </si>
+  <si>
+    <t>Human-readable description of system status  (ASCII text + \n)</t>
+  </si>
+  <si>
+    <r>
+      <t>Enable pin</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Start system timer</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <r>
+      <t>Stop system timer and
+clear the event queue</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <r>
@@ -511,17 +547,6 @@
       </rPr>
       <t>property_id</t>
     </r>
-  </si>
-  <si>
-    <t>Property value (ASCII text + \n)</t>
-  </si>
-  <si>
-    <t>Human-readable description of system status  (ASCII text + \n)</t>
-  </si>
-  <si>
-    <r>
-      <t>Enable pin</t>
-    </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
@@ -530,12 +555,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Start system timer</t>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <r>
+      <t>Get names and addresses of event functions</t>
     </r>
     <r>
       <rPr>
@@ -546,43 +574,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>11</t>
-    </r>
-  </si>
-  <si>
-    <t>Enable/disable electrical output of the given pin. If disabled, the pin outputs low TTL level. However, PIN and TGL events still modify the internal level of the disabled pin, which will be visible after the pin is enabled</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <r>
-      <t>Stop system timer and
-clear the event queue</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Start system timer, if is not running. The timer is running by default unless stopped. It always starts with 0</t>
-  </si>
-  <si>
-    <t>Stopping timer prevents execution of events. The events are scheduled until the timer is active again. Use this to program waveforms with exact timings. Commands STP, CLR, RST also bring all output pins to default low TTL state</t>
-  </si>
-  <si>
-    <r>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Content of event queue as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> array of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct Event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (28-byte)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">uint32
 </t>
     </r>
@@ -594,25 +646,239 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>property_id</t>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uint64</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+timestamp_cts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+  </si>
+  <si>
+    <t>struct Event
+28 bytes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_addr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_arg1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_arg2</t>
+    </r>
+  </si>
+  <si>
+    <t>Set property</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>property_value</t>
+    </r>
+  </si>
+  <si>
+    <t>Setup stroboscopic/ALEX acquisition</t>
+  </si>
+  <si>
+    <t>ALX</t>
+  </si>
+  <si>
+    <t>N bursts</t>
+  </si>
+  <si>
+    <t>LSH</t>
+  </si>
+  <si>
+    <t>Enable/disable laser shutters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(bool) uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enabled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(bool) uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <r>
-      <t>Get names and addresses of event functions</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(uint8) uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lasers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exposure_us</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(uint8) uint32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lasers</t>
     </r>
     <r>
       <rPr>
@@ -623,18 +889,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>14</t>
-    </r>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Get lookup table for event function names. These functions are identified by their memory address in the event queue</t>
-  </si>
-  <si>
-    <t>One ASCII line per function in format
-&lt;addr&gt; &lt;name&gt;\n</t>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
+  </si>
+  <si>
+    <t>v2.2.0</t>
   </si>
   <si>
     <r>
@@ -644,7 +912,7 @@
     <r>
       <rPr>
         <u/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -654,7 +922,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -666,7 +934,7 @@
     <r>
       <rPr>
         <u/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -676,7 +944,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -692,7 +960,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -702,7 +970,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -713,12 +981,128 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SysProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enum for a list of supported properties. Property names start with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ro_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rw_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (read-only or read-write).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>burst period</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desired time interval between bursts. Values less than </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(laser exposure + shutter delay + camera readout) x N spectral channels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are ignored.</t>
+    </r>
+  </si>
+  <si>
+    <t>TTL level. 0 means low, anything else means high.</t>
+  </si>
+  <si>
+    <t>Timestamp of the first event occurrence, in us. The timestamp is absolute if system timer is stopped, otherwise is relative to current time. A constant delay of 500us is internally added to every timestamp.</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Number of event occurences </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -728,7 +1112,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -739,7 +1123,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -749,13 +1133,13 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is 0, and interval is given, the event repeats infinitely</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is 0, and interval is given, the event repeats infinitely.</t>
     </r>
   </si>
   <si>
@@ -765,7 +1149,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -775,7 +1159,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -786,7 +1170,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -796,14 +1180,17 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is 20+ us, otherwise only once</t>
-    </r>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is 20+ us, otherwise only once.</t>
+    </r>
+  </si>
+  <si>
+    <t>Commands that set output level (PIN, TGL, PPL, NPL, BST, etc) also configure the given pin as output.</t>
   </si>
   <si>
     <r>
@@ -812,7 +1199,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -822,7 +1209,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -833,7 +1220,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -843,285 +1230,81 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, as well as Arduino Due pinout diagram</t>
-    </r>
-  </si>
-  <si>
-    <t>Send a pulse train on TIOA6 pin (aka PC25 or D5)with given pulse period and pulse train duration. It is generated using hardware timer/counter 6 running at 42MHz in waveform mode; the duty cycle is 12.5%. Use this to generate fast bursts of pulses e.g. for reading out camera line-by-line</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Content of event queue as a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>binary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> array of </t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as well as Arduino Due pinout diagram.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pulse duration in us. 0 means default duration (100 us).</t>
+  </si>
+  <si>
+    <t>Send a pulse train on TIOA6 pin (aka PC25 or D5) with given pulse period and pulse train duration. It is generated using hardware timer/counter 6 running at 42MHz in waveform mode; the duty cycle is 12.5%. Use this to generate fast bursts of pulses e.g. for reading out camera line-by-line.</t>
+  </si>
+  <si>
+    <t>Enable/disable electrical output of the given pin. If disabled, the pin outputs low TTL level. However, PIN and TGL events still modify the internal level of the disabled pin, which will be visible after the pin is enabled.</t>
+  </si>
+  <si>
+    <t>Start system timer, if is not running. The timer is running by default unless stopped. It always starts with 0.</t>
+  </si>
+  <si>
+    <t>Stopping timer prevents execution of events. The events are scheduled until the timer is active again. Use this to program waveforms with exact timings. Commands STP, CLR, RST also bring all output pins to default low TTL state.</t>
+  </si>
+  <si>
+    <t>Get lookup table for event function names. These functions are identified by their memory address in the event queue.</t>
+  </si>
+  <si>
+    <r>
+      <t>Binary mask indicating what lasers are in use; bit 0 - Cy2, bit 1 - Cy3, bit 2 - Cy5, bit 3 - Cy7. See</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>struct Event</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (28-byte)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">uint32
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uint64</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-timestamp_cts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">uint32
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interval</t>
-    </r>
-  </si>
-  <si>
-    <t>struct Event
-28 bytes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uint32
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_addr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uint32
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_arg1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uint32
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_arg2</t>
-    </r>
-  </si>
-  <si>
-    <t>Set property</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uint32
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>property_value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">See </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SysProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enum for a list of supported properties. Property names start with </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ro_ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rw_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (read-only or read-write).</t>
-    </r>
-  </si>
-  <si>
-    <t>v2.1.0</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> globals.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for pin mapping.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One ASCII line per function in format </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;addr&gt; &lt;name&gt;\n</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,14 +1365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1234,7 +1409,30 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1242,14 +1440,14 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1268,8 +1466,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1338,11 +1542,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1393,13 +1625,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1415,9 +1643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1439,9 +1664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1454,6 +1676,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1776,80 +2045,80 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K45" sqref="A1:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="0.7109375" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" style="11" customWidth="1"/>
     <col min="13" max="13" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="22" t="s">
-        <v>47</v>
+    <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="53" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="23">
+        <v>43</v>
+      </c>
+      <c r="D3" s="21">
         <v>0</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <v>2</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>3</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="21">
         <v>4</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="23">
+        <v>44</v>
+      </c>
+      <c r="D4" s="21">
         <v>4</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>4</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="21">
         <v>4</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>4</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <v>4</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <v>4</v>
       </c>
     </row>
@@ -1859,7 +2128,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>4</v>
@@ -1868,33 +2137,33 @@
         <v>5</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>11</v>
@@ -1906,17 +2175,17 @@
         <v>13</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="26"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>14</v>
@@ -1931,20 +2200,20 @@
         <v>13</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="26"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>11</v>
@@ -1956,20 +2225,20 @@
         <v>13</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="26"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>11</v>
@@ -1981,20 +2250,20 @@
         <v>13</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="26"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>11</v>
@@ -2006,17 +2275,17 @@
         <v>13</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="26"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>14</v>
@@ -2031,17 +2300,17 @@
         <v>13</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="26"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>14</v>
@@ -2056,508 +2325,602 @@
         <v>13</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="26"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="26"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="26"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="37" t="s">
+      <c r="B15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="26"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="37" t="s">
+      <c r="B16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="26"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="27" t="s">
-        <v>65</v>
+      <c r="K17" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>60</v>
+        <v>79</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="26"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="37" t="s">
+      <c r="B19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="27" t="s">
-        <v>66</v>
+      <c r="K19" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="24"/>
+      <c r="M22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="24"/>
+      <c r="M23" s="38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+    </row>
+    <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+    </row>
+    <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+    </row>
+    <row r="38" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+    </row>
+    <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" spans="1:14" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+    </row>
+    <row r="42" spans="1:14" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+    </row>
+    <row r="44" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="36" t="s">
+      <c r="F44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-    </row>
-    <row r="36" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="H44" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="I44" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41">
+      <c r="J44" s="9"/>
+      <c r="K44" s="31"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="E41">
+      <c r="E45">
         <v>4</v>
       </c>
-      <c r="F41">
+      <c r="F45">
         <v>4</v>
       </c>
-      <c r="G41">
+      <c r="G45">
         <v>8</v>
       </c>
-      <c r="H41">
+      <c r="H45">
         <v>4</v>
       </c>
-      <c r="I41">
+      <c r="I45">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
+  <mergeCells count="27">
     <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B40:K40"/>
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B28:K28"/>
@@ -2569,9 +2932,20 @@
     <mergeCell ref="B34:K34"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E15:I15"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/data packet structure.xlsx
+++ b/doc/data packet structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkiselev\Documents\dev\sync_device_32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73442C3E-6B81-4B87-9FD3-C2587E788801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A57830-4403-430B-A4B5-23BF8D7A1277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
   </bookViews>
   <sheets>
     <sheet name="Data packet format" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
   <si>
     <t>Description</t>
   </si>
@@ -771,19 +771,10 @@
     </r>
   </si>
   <si>
-    <t>Setup stroboscopic/ALEX acquisition</t>
-  </si>
-  <si>
     <t>ALX</t>
   </si>
   <si>
     <t>N bursts</t>
-  </si>
-  <si>
-    <t>LSH</t>
-  </si>
-  <si>
-    <t>Enable/disable laser shutters</t>
   </si>
   <si>
     <r>
@@ -799,23 +790,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>enabled</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(bool) uint32
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>level</t>
     </r>
     <r>
@@ -828,23 +802,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(uint8) uint32
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lasers</t>
     </r>
   </si>
   <si>
@@ -865,34 +822,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">(uint8) uint32
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lasers</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -1064,8 +993,111 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Desired time interval between bursts. Values less than </t>
+    <t>TTL level. 0 means low, anything else means high.</t>
+  </si>
+  <si>
+    <t>Timestamp of the first event occurrence, in us. The timestamp is absolute if system timer is stopped, otherwise is relative to current time. A constant delay of 500us is internally added to every timestamp.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of event occurences </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is 0, and interval is given, the event repeats infinitely.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interval between events, in us. The event repeats </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is 20+ us, otherwise only once.</t>
+    </r>
+  </si>
+  <si>
+    <t>Commands that set output level (PIN, TGL, PPL, NPL, BST, etc) also configure the given pin as output.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arduino Due pin name, such as A3 or D51. left-aligned null-terminated string. Refer to </t>
     </r>
     <r>
       <rPr>
@@ -1076,7 +1108,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(laser exposure + shutter delay + camera readout) x N spectral channels </t>
+      <t>pins.cpp</t>
     </r>
     <r>
       <rPr>
@@ -1086,115 +1118,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>are ignored.</t>
-    </r>
-  </si>
-  <si>
-    <t>TTL level. 0 means low, anything else means high.</t>
-  </si>
-  <si>
-    <t>Timestamp of the first event occurrence, in us. The timestamp is absolute if system timer is stopped, otherwise is relative to current time. A constant delay of 500us is internally added to every timestamp.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Number of event occurences </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. If </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is 0, and interval is given, the event repeats infinitely.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Interval between events, in us. The event repeats </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is 20+ us, otherwise only once.</t>
-    </r>
-  </si>
-  <si>
-    <t>Commands that set output level (PIN, TGL, PPL, NPL, BST, etc) also configure the given pin as output.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arduino Due pin name, such as A3 or D51. left-aligned null-terminated string. Refer to </t>
+      <t xml:space="preserve"> or </t>
     </r>
     <r>
       <rPr>
@@ -1205,7 +1129,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pins.cpp</t>
+      <t>rev_pin_map.py</t>
     </r>
     <r>
       <rPr>
@@ -1215,7 +1139,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> or </t>
+      <t>, as well as Arduino Due pinout diagram.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pulse duration in us. 0 means default duration (100 us).</t>
+  </si>
+  <si>
+    <t>Send a pulse train on TIOA6 pin (aka PC25 or D5) with given pulse period and pulse train duration. It is generated using hardware timer/counter 6 running at 42MHz in waveform mode; the duty cycle is 12.5%. Use this to generate fast bursts of pulses e.g. for reading out camera line-by-line.</t>
+  </si>
+  <si>
+    <t>Enable/disable electrical output of the given pin. If disabled, the pin outputs low TTL level. However, PIN and TGL events still modify the internal level of the disabled pin, which will be visible after the pin is enabled.</t>
+  </si>
+  <si>
+    <t>Start system timer, if is not running. The timer is running by default unless stopped. It always starts with 0.</t>
+  </si>
+  <si>
+    <t>Stopping timer prevents execution of events. The events are scheduled until the timer is active again. Use this to program waveforms with exact timings. Commands STP, CLR, RST also bring all output pins to default low TTL state.</t>
+  </si>
+  <si>
+    <t>Get lookup table for event function names. These functions are identified by their memory address in the event queue.</t>
+  </si>
+  <si>
+    <r>
+      <t>Binary mask indicating what lasers are in use; bit 0 - Cy2, bit 1 - Cy3, bit 2 - Cy5, bit 3 - Cy7. See</t>
     </r>
     <r>
       <rPr>
@@ -1226,7 +1173,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>rev_pin_map.py</t>
+      <t xml:space="preserve"> globals.h</t>
     </r>
     <r>
       <rPr>
@@ -1236,30 +1183,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, as well as Arduino Due pinout diagram.</t>
-    </r>
-  </si>
-  <si>
-    <t>Pulse duration in us. 0 means default duration (100 us).</t>
-  </si>
-  <si>
-    <t>Send a pulse train on TIOA6 pin (aka PC25 or D5) with given pulse period and pulse train duration. It is generated using hardware timer/counter 6 running at 42MHz in waveform mode; the duty cycle is 12.5%. Use this to generate fast bursts of pulses e.g. for reading out camera line-by-line.</t>
-  </si>
-  <si>
-    <t>Enable/disable electrical output of the given pin. If disabled, the pin outputs low TTL level. However, PIN and TGL events still modify the internal level of the disabled pin, which will be visible after the pin is enabled.</t>
-  </si>
-  <si>
-    <t>Start system timer, if is not running. The timer is running by default unless stopped. It always starts with 0.</t>
-  </si>
-  <si>
-    <t>Stopping timer prevents execution of events. The events are scheduled until the timer is active again. Use this to program waveforms with exact timings. Commands STP, CLR, RST also bring all output pins to default low TTL state.</t>
-  </si>
-  <si>
-    <t>Get lookup table for event function names. These functions are identified by their memory address in the event queue.</t>
-  </si>
-  <si>
-    <r>
-      <t>Binary mask indicating what lasers are in use; bit 0 - Cy2, bit 1 - Cy3, bit 2 - Cy5, bit 3 - Cy7. See</t>
+      <t xml:space="preserve"> for pin mapping.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One ASCII line per function in format </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;addr&gt; &lt;name&gt;\n</t>
+    </r>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Start continious pTIRF
+data acquisition</t>
+  </si>
+  <si>
+    <t>Start stroboscopic pTIRF
+data acquisition</t>
+  </si>
+  <si>
+    <t>Start ALEX pTIRF
+data acquisition</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>N frames</t>
+  </si>
+  <si>
+    <r>
+      <t>frame period</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desired time interval between bursts/frames. Values less than </t>
     </r>
     <r>
       <rPr>
@@ -1270,7 +1252,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> globals.h</t>
+      <t xml:space="preserve">(laser exposure + shutter delay + camera readout) x N spectral channels </t>
     </r>
     <r>
       <rPr>
@@ -1280,23 +1262,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> for pin mapping.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">One ASCII line per function in format </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;addr&gt; &lt;name&gt;\n</t>
+      <t>are ignored.</t>
     </r>
   </si>
 </sst>
@@ -1473,7 +1439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1519,30 +1485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1557,24 +1499,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1664,65 +1593,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2045,17 +1953,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K45" sqref="A1:K45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="1" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="0.7109375" customWidth="1"/>
@@ -2065,14 +1973,14 @@
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="40" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2163,7 +2071,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>11</v>
@@ -2284,10 +2192,10 @@
       <c r="D11" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -2309,10 +2217,10 @@
       <c r="D12" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -2334,13 +2242,21 @@
       <c r="D13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="E13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="24"/>
     </row>
@@ -2351,13 +2267,21 @@
       <c r="D14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="E14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="24"/>
     </row>
@@ -2368,13 +2292,21 @@
       <c r="D15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="E15" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="24"/>
     </row>
@@ -2385,13 +2317,21 @@
       <c r="D16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="E16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="24"/>
     </row>
@@ -2405,12 +2345,18 @@
       <c r="E17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="F17" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="25" t="s">
         <v>60</v>
@@ -2429,11 +2375,15 @@
       <c r="F18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="G18" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="24"/>
     </row>
@@ -2444,13 +2394,21 @@
       <c r="D19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="E19" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="25" t="s">
         <v>61</v>
@@ -2463,465 +2421,511 @@
       <c r="D20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="E20" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="36" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="F21" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="47" t="s">
+      <c r="K21" s="37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="41" t="s">
+    <row r="22" spans="1:14" s="33" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>13</v>
+      <c r="F22" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="24"/>
-      <c r="M22" t="s">
-        <v>93</v>
+      <c r="M22" s="33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="48" t="s">
-        <v>81</v>
+      <c r="B23" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>11</v>
+        <v>107</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="24"/>
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="33" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="24"/>
+      <c r="M24" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+    </row>
+    <row r="29" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="50" t="s">
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+    </row>
+    <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="50" t="s">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+    </row>
+    <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="50" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+    </row>
+    <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="50" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+    </row>
+    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="50" t="s">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+    </row>
+    <row r="42" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-    </row>
-    <row r="41" spans="1:14" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-    </row>
-    <row r="42" spans="1:14" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-    </row>
-    <row r="43" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+    </row>
+    <row r="43" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+    </row>
+    <row r="44" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+    </row>
+    <row r="45" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D45" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G45" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="31"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="32" t="s">
+      <c r="J45" s="9"/>
+      <c r="K45" s="31"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>4</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>4</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>8</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>4</v>
       </c>
-      <c r="I45">
+      <c r="I46">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E21:I21"/>
+  <mergeCells count="18">
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B42:K42"/>
     <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B40:K40"/>
     <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
     <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B26:K26"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B28:K28"/>
     <mergeCell ref="B29:K29"/>
@@ -2931,17 +2935,6 @@
     <mergeCell ref="B33:K33"/>
     <mergeCell ref="B34:K34"/>
     <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E15:I15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/doc/data packet structure.xlsx
+++ b/doc/data packet structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkiselev\Documents\dev\sync_device_32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A57830-4403-430B-A4B5-23BF8D7A1277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430820CE-E44E-49D6-9EBB-A805CDB8E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
   </bookViews>
@@ -1955,8 +1955,8 @@
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:K35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,8 +2481,8 @@
       <c r="F22" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>14</v>
+      <c r="G22" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>112</v>
@@ -2509,8 +2509,8 @@
       <c r="F23" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="41" t="s">
-        <v>14</v>
+      <c r="G23" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>112</v>
@@ -2537,8 +2537,8 @@
       <c r="F24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="41" t="s">
-        <v>14</v>
+      <c r="G24" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>82</v>

--- a/doc/data packet structure.xlsx
+++ b/doc/data packet structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkiselev\Documents\dev\sync_device_32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430820CE-E44E-49D6-9EBB-A805CDB8E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E7B59-543D-427F-9983-A0F6ACEBF0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="114">
   <si>
     <t>Description</t>
   </si>
@@ -828,12 +828,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>Not implemented</t>
-  </si>
-  <si>
-    <t>v2.2.0</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Each data packet is always 24 byte long. A delay of 25+ms between characters resets the data packet.
 On startup, the system prints </t>
@@ -1264,6 +1258,9 @@
       </rPr>
       <t>are ignored.</t>
     </r>
+  </si>
+  <si>
+    <t>v2.3.0</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,9 +1603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1619,6 +1613,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1627,9 +1627,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1955,8 +1952,8 @@
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,14 +1970,14 @@
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2195,7 +2192,7 @@
       <c r="E11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="40" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -2220,7 +2217,7 @@
       <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="40" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -2242,19 +2239,19 @@
       <c r="D13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="42" t="s">
+      <c r="E13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="9"/>
@@ -2267,19 +2264,19 @@
       <c r="D14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="42" t="s">
+      <c r="E14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="9"/>
@@ -2292,19 +2289,19 @@
       <c r="D15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="42" t="s">
+      <c r="E15" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="9"/>
@@ -2317,19 +2314,19 @@
       <c r="D16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="42" t="s">
+      <c r="E16" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="9"/>
@@ -2345,16 +2342,16 @@
       <c r="E17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="42" t="s">
+      <c r="F17" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="9"/>
@@ -2375,13 +2372,13 @@
       <c r="F18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="42" t="s">
+      <c r="G18" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="9"/>
@@ -2394,19 +2391,19 @@
       <c r="D19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="42" t="s">
+      <c r="E19" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="9"/>
@@ -2421,24 +2418,24 @@
       <c r="D20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="42" t="s">
+      <c r="E20" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2448,19 +2445,19 @@
       <c r="D21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="42" t="s">
+      <c r="E21" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9"/>
@@ -2469,64 +2466,59 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="33" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
-        <v>108</v>
+      <c r="B22" s="43" t="s">
+        <v>106</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="40" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="24"/>
-      <c r="M22" s="33" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="23" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38" t="s">
-        <v>109</v>
+      <c r="B23" s="43" t="s">
+        <v>107</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="40" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="24"/>
-      <c r="M23" s="33" t="s">
-        <v>87</v>
-      </c>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" s="33" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
-        <v>110</v>
+      <c r="B24" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>81</v>
@@ -2534,7 +2526,7 @@
       <c r="E24" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="40" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="17" t="s">
@@ -2544,13 +2536,10 @@
         <v>82</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="24"/>
-      <c r="M24" s="33" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="25" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
@@ -2568,304 +2557,304 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+    </row>
+    <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+    </row>
+    <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+    </row>
+    <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+    </row>
+    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-    </row>
-    <row r="29" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-    </row>
-    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-    </row>
-    <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="43" t="s">
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-    </row>
-    <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="43" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+    </row>
+    <row r="42" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-    </row>
-    <row r="42" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
     </row>
     <row r="43" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
+      <c r="B43" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
     </row>
     <row r="44" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
     </row>
     <row r="45" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="30" t="s">
@@ -2917,6 +2906,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
     <mergeCell ref="B36:K36"/>
     <mergeCell ref="B44:K44"/>
     <mergeCell ref="B42:K42"/>
@@ -2926,15 +2924,6 @@
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K35"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/doc/data packet structure.xlsx
+++ b/doc/data packet structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkiselev\Documents\dev\sync_device_32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E7B59-543D-427F-9983-A0F6ACEBF0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D98A1-A11C-46F5-BB4C-BDF0125C09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
   </bookViews>
@@ -1472,11 +1472,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1488,10 +1490,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1500,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,13 +1594,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1610,14 +1610,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1952,8 +1961,8 @@
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:K27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2260,7 @@
       <c r="H13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="40" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="9"/>
@@ -2276,7 +2285,7 @@
       <c r="H14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="40" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="9"/>
@@ -2301,7 +2310,7 @@
       <c r="H15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="40" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="9"/>
@@ -2326,7 +2335,7 @@
       <c r="H16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="40" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="9"/>
@@ -2351,7 +2360,7 @@
       <c r="H17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="40" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="9"/>
@@ -2378,7 +2387,7 @@
       <c r="H18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="40" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="9"/>
@@ -2391,7 +2400,7 @@
       <c r="D19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="40" t="s">
@@ -2403,7 +2412,7 @@
       <c r="H19" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="40" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="9"/>
@@ -2418,7 +2427,7 @@
       <c r="D20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="40" t="s">
@@ -2430,7 +2439,7 @@
       <c r="H20" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="40" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="9"/>
@@ -2445,19 +2454,19 @@
       <c r="D21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="41" t="s">
+      <c r="E21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="46" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9"/>
@@ -2466,32 +2475,32 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="33" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="41" t="s">
         <v>106</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="43" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="41" t="s">
         <v>107</v>
       </c>
       <c r="D23" s="26" t="s">
@@ -2517,7 +2526,7 @@
       <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" s="33" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="41" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -2557,304 +2566,304 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
     </row>
     <row r="42" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
     </row>
     <row r="43" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
     </row>
     <row r="44" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
     </row>
     <row r="45" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="30" t="s">

--- a/doc/data packet structure.xlsx
+++ b/doc/data packet structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkiselev\Documents\dev\sync_device_32\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkiselev\Documents\dev\microsync\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D98A1-A11C-46F5-BB4C-BDF0125C09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E723593C-D3C0-460F-AA35-0B0B832B6477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
+    <workbookView xWindow="8700" yWindow="1710" windowWidth="40620" windowHeight="17700" xr2:uid="{48FB7E95-C391-4754-94A5-34D8116DC883}"/>
   </bookViews>
   <sheets>
     <sheet name="Data packet format" sheetId="2" r:id="rId1"/>
@@ -829,6 +829,389 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field is 4-character long, left-aligned. That is, for 3-character commands, the last byte is ignored. The commands are case-insensitive. Unknown command leads to error response.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SysProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enum for a list of supported properties. Property names start with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ro_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rw_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (read-only or read-write).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>burst period</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <t>TTL level. 0 means low, anything else means high.</t>
+  </si>
+  <si>
+    <t>Timestamp of the first event occurrence, in us. The timestamp is absolute if system timer is stopped, otherwise is relative to current time. A constant delay of 500us is internally added to every timestamp.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of event occurences </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is 0, and interval is given, the event repeats infinitely.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interval between events, in us. The event repeats </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is 20+ us, otherwise only once.</t>
+    </r>
+  </si>
+  <si>
+    <t>Commands that set output level (PIN, TGL, PPL, NPL, BST, etc) also configure the given pin as output.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arduino Due pin name, such as A3 or D51. left-aligned null-terminated string. Refer to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pins.cpp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rev_pin_map.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as well as Arduino Due pinout diagram.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pulse duration in us. 0 means default duration (100 us).</t>
+  </si>
+  <si>
+    <t>Send a pulse train on TIOA6 pin (aka PC25 or D5) with given pulse period and pulse train duration. It is generated using hardware timer/counter 6 running at 42MHz in waveform mode; the duty cycle is 12.5%. Use this to generate fast bursts of pulses e.g. for reading out camera line-by-line.</t>
+  </si>
+  <si>
+    <t>Enable/disable electrical output of the given pin. If disabled, the pin outputs low TTL level. However, PIN and TGL events still modify the internal level of the disabled pin, which will be visible after the pin is enabled.</t>
+  </si>
+  <si>
+    <t>Start system timer, if is not running. The timer is running by default unless stopped. It always starts with 0.</t>
+  </si>
+  <si>
+    <t>Stopping timer prevents execution of events. The events are scheduled until the timer is active again. Use this to program waveforms with exact timings. Commands STP, CLR, RST also bring all output pins to default low TTL state.</t>
+  </si>
+  <si>
+    <t>Get lookup table for event function names. These functions are identified by their memory address in the event queue.</t>
+  </si>
+  <si>
+    <r>
+      <t>Binary mask indicating what lasers are in use; bit 0 - Cy2, bit 1 - Cy3, bit 2 - Cy5, bit 3 - Cy7. See</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> globals.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for pin mapping.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One ASCII line per function in format </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;addr&gt; &lt;name&gt;\n</t>
+    </r>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Start continious pTIRF
+data acquisition</t>
+  </si>
+  <si>
+    <t>Start stroboscopic pTIRF
+data acquisition</t>
+  </si>
+  <si>
+    <t>Start ALEX pTIRF
+data acquisition</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>N frames</t>
+  </si>
+  <si>
+    <r>
+      <t>frame period</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desired time interval between bursts/frames. Values less than </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(laser exposure + shutter delay + camera readout) x N spectral channels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are ignored.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Each data packet is always 24 byte long. A delay of 25+ms between characters resets the data packet.
 On startup, the system prints </t>
     </r>
@@ -852,7 +1235,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-In case of errors, the replay is </t>
+In case of errors, the reply is </t>
     </r>
     <r>
       <rPr>
@@ -877,390 +1260,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> field is 4-character long, left-aligned. That is, for 3-character commands, the last byte is ignored. The commands are case-insensitive. Unknown command leads to error response.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">See </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SysProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enum for a list of supported properties. Property names start with </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ro_ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rw_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (read-only or read-write).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>burst period</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16</t>
-    </r>
-  </si>
-  <si>
-    <t>TTL level. 0 means low, anything else means high.</t>
-  </si>
-  <si>
-    <t>Timestamp of the first event occurrence, in us. The timestamp is absolute if system timer is stopped, otherwise is relative to current time. A constant delay of 500us is internally added to every timestamp.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Number of event occurences </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. If </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is 0, and interval is given, the event repeats infinitely.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Interval between events, in us. The event repeats </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is 20+ us, otherwise only once.</t>
-    </r>
-  </si>
-  <si>
-    <t>Commands that set output level (PIN, TGL, PPL, NPL, BST, etc) also configure the given pin as output.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arduino Due pin name, such as A3 or D51. left-aligned null-terminated string. Refer to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pins.cpp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rev_pin_map.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, as well as Arduino Due pinout diagram.</t>
-    </r>
-  </si>
-  <si>
-    <t>Pulse duration in us. 0 means default duration (100 us).</t>
-  </si>
-  <si>
-    <t>Send a pulse train on TIOA6 pin (aka PC25 or D5) with given pulse period and pulse train duration. It is generated using hardware timer/counter 6 running at 42MHz in waveform mode; the duty cycle is 12.5%. Use this to generate fast bursts of pulses e.g. for reading out camera line-by-line.</t>
-  </si>
-  <si>
-    <t>Enable/disable electrical output of the given pin. If disabled, the pin outputs low TTL level. However, PIN and TGL events still modify the internal level of the disabled pin, which will be visible after the pin is enabled.</t>
-  </si>
-  <si>
-    <t>Start system timer, if is not running. The timer is running by default unless stopped. It always starts with 0.</t>
-  </si>
-  <si>
-    <t>Stopping timer prevents execution of events. The events are scheduled until the timer is active again. Use this to program waveforms with exact timings. Commands STP, CLR, RST also bring all output pins to default low TTL state.</t>
-  </si>
-  <si>
-    <t>Get lookup table for event function names. These functions are identified by their memory address in the event queue.</t>
-  </si>
-  <si>
-    <r>
-      <t>Binary mask indicating what lasers are in use; bit 0 - Cy2, bit 1 - Cy3, bit 2 - Cy5, bit 3 - Cy7. See</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> globals.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for pin mapping.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">One ASCII line per function in format </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;addr&gt; &lt;name&gt;\n</t>
-    </r>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>Start continious pTIRF
-data acquisition</t>
-  </si>
-  <si>
-    <t>Start stroboscopic pTIRF
-data acquisition</t>
-  </si>
-  <si>
-    <t>Start ALEX pTIRF
-data acquisition</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>N frames</t>
-  </si>
-  <si>
-    <r>
-      <t>frame period</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desired time interval between bursts/frames. Values less than </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(laser exposure + shutter delay + camera readout) x N spectral channels </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>are ignored.</t>
-    </r>
-  </si>
-  <si>
-    <t>v2.3.0</t>
+    <t>v2.4.0</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1517,16 +1517,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1551,16 +1550,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,35 +1568,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1660,9 +1642,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1700,7 +1682,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1806,7 +1788,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1948,7 +1930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1961,8 +1943,8 @@
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1955,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="0.7109375" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" customWidth="1"/>
     <col min="13" max="13" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1986,7 +1968,7 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="39" t="s">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1994,22 +1976,22 @@
       <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2017,60 +1999,60 @@
       <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="1">
         <v>4</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2079,48 +2061,48 @@
       <c r="F6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="24"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="24"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2129,23 +2111,23 @@
       <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -2154,401 +2136,400 @@
       <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="40" t="s">
+      <c r="E13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="32" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="40" t="s">
+      <c r="E14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="32" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="40" t="s">
+      <c r="E15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="32" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="40" t="s">
+      <c r="E16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="32" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="24"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="40" t="s">
+      <c r="F17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="32" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="40" t="s">
+      <c r="G18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="24"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="40" t="s">
+      <c r="E19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="32" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="40" t="s">
+      <c r="E20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="33" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="26" t="s">
+      <c r="E23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="I23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="44" t="s">
+      <c r="F24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="24"/>
-      <c r="M23" s="33"/>
-    </row>
-    <row r="24" spans="1:14" s="33" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>90</v>
+      <c r="I24" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="J24" s="9"/>
-      <c r="K24" s="24"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
@@ -2560,338 +2541,338 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="47" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+    </row>
+    <row r="29" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+    </row>
+    <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+    </row>
+    <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+    </row>
+    <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+    </row>
+    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-    </row>
-    <row r="29" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-    </row>
-    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-    </row>
-    <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-    </row>
-    <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="47" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="47" t="s">
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+    </row>
+    <row r="42" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-    </row>
-    <row r="42" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-    </row>
-    <row r="43" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
+      <c r="B43" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
     </row>
     <row r="44" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
     </row>
     <row r="45" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>77</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="16" t="s">
         <v>74</v>
       </c>
       <c r="J45" s="9"/>
-      <c r="K45" s="31"/>
+      <c r="K45" s="26"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D46">
@@ -2915,6 +2896,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:K39"/>
     <mergeCell ref="B32:K32"/>
     <mergeCell ref="B33:K33"/>
     <mergeCell ref="B34:K34"/>
@@ -2924,19 +2914,10 @@
     <mergeCell ref="B29:K29"/>
     <mergeCell ref="B30:K30"/>
     <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K39"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>